--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col2a1-Tnfrsf10b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H2">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J2">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N2">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O2">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P2">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q2">
-        <v>0.6086052549127777</v>
+        <v>0.7982533071977777</v>
       </c>
       <c r="R2">
-        <v>5.477447294215</v>
+        <v>7.18427976478</v>
       </c>
       <c r="S2">
-        <v>0.03926083426072909</v>
+        <v>0.07522797422836122</v>
       </c>
       <c r="T2">
-        <v>0.03926083426072909</v>
+        <v>0.07522797422836122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H3">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J3">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>10.387475</v>
       </c>
       <c r="O3">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P3">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q3">
-        <v>0.1277601716805556</v>
+        <v>0.2229094426805555</v>
       </c>
       <c r="R3">
-        <v>1.149841545125</v>
+        <v>2.006184984125</v>
       </c>
       <c r="S3">
-        <v>0.008241747643456431</v>
+        <v>0.0210071485555104</v>
       </c>
       <c r="T3">
-        <v>0.008241747643456429</v>
+        <v>0.0210071485555104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03689833333333333</v>
+        <v>0.06437833333333333</v>
       </c>
       <c r="H4">
-        <v>0.110695</v>
+        <v>0.193135</v>
       </c>
       <c r="I4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="J4">
-        <v>0.05266187597972401</v>
+        <v>0.109187438766332</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N4">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O4">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P4">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q4">
-        <v>0.07997724819500002</v>
+        <v>0.1374386214027778</v>
       </c>
       <c r="R4">
-        <v>0.719795233755</v>
+        <v>1.236947592625</v>
       </c>
       <c r="S4">
-        <v>0.005159294075538496</v>
+        <v>0.01295231598246042</v>
       </c>
       <c r="T4">
-        <v>0.005159294075538496</v>
+        <v>0.01295231598246041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H5">
         <v>1.436459</v>
       </c>
       <c r="I5">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J5">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N5">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O5">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P5">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q5">
-        <v>7.897705369409223</v>
+        <v>5.937081043850221</v>
       </c>
       <c r="R5">
-        <v>71.07934832468301</v>
+        <v>53.433729394652</v>
       </c>
       <c r="S5">
-        <v>0.509477200608272</v>
+        <v>0.5595148504004843</v>
       </c>
       <c r="T5">
-        <v>0.509477200608272</v>
+        <v>0.5595148504004842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H6">
         <v>1.436459</v>
       </c>
       <c r="I6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J6">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>10.387475</v>
       </c>
       <c r="O6">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P6">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q6">
-        <v>1.657909105669445</v>
+        <v>1.657909105669444</v>
       </c>
       <c r="R6">
         <v>14.921181951025</v>
       </c>
       <c r="S6">
-        <v>0.106950924415482</v>
+        <v>0.1562425640453564</v>
       </c>
       <c r="T6">
-        <v>0.106950924415482</v>
+        <v>0.1562425640453564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4788196666666667</v>
+        <v>0.4788196666666666</v>
       </c>
       <c r="H7">
         <v>1.436459</v>
       </c>
       <c r="I7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857952</v>
       </c>
       <c r="J7">
-        <v>0.683378885297063</v>
+        <v>0.8120914339857951</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N7">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O7">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P7">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q7">
-        <v>1.037843063959</v>
+        <v>1.022212155547222</v>
       </c>
       <c r="R7">
-        <v>9.340587575631002</v>
+        <v>9.199909399924998</v>
       </c>
       <c r="S7">
-        <v>0.06695076027330912</v>
+        <v>0.09633401953995448</v>
       </c>
       <c r="T7">
-        <v>0.06695076027330912</v>
+        <v>0.09633401953995445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H8">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I8">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J8">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N8">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O8">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P8">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q8">
-        <v>2.367856280311222</v>
+        <v>0.5267393078893333</v>
       </c>
       <c r="R8">
-        <v>21.310706522801</v>
+        <v>4.740653771004</v>
       </c>
       <c r="S8">
-        <v>0.1527492775064003</v>
+        <v>0.04964029678507283</v>
       </c>
       <c r="T8">
-        <v>0.1527492775064003</v>
+        <v>0.04964029678507283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H9">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I9">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J9">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>10.387475</v>
       </c>
       <c r="O9">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P9">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q9">
-        <v>0.4970672245194445</v>
+        <v>0.1470901084916666</v>
       </c>
       <c r="R9">
-        <v>4.473605020675</v>
+        <v>1.323810976425</v>
       </c>
       <c r="S9">
-        <v>0.03206556920231548</v>
+        <v>0.01386187916928528</v>
       </c>
       <c r="T9">
-        <v>0.03206556920231547</v>
+        <v>0.01386187916928528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1435576666666667</v>
+        <v>0.042481</v>
       </c>
       <c r="H10">
-        <v>0.430673</v>
+        <v>0.127443</v>
       </c>
       <c r="I10">
-        <v>0.2048877376016593</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="J10">
-        <v>0.2048877376016594</v>
+        <v>0.07204895414449818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N10">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O10">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P10">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q10">
-        <v>0.311161673173</v>
+        <v>0.09069091685833333</v>
       </c>
       <c r="R10">
-        <v>2.800455058557</v>
+        <v>0.816218251725</v>
       </c>
       <c r="S10">
-        <v>0.02007289089294359</v>
+        <v>0.008546778190140073</v>
       </c>
       <c r="T10">
-        <v>0.02007289089294359</v>
+        <v>0.008546778190140072</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H11">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I11">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J11">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.49411233333333</v>
+        <v>12.39940933333333</v>
       </c>
       <c r="N11">
-        <v>49.482337</v>
+        <v>37.198228</v>
       </c>
       <c r="O11">
-        <v>0.7455266932732397</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="P11">
-        <v>0.7455266932732396</v>
+        <v>0.6889801160127385</v>
       </c>
       <c r="Q11">
-        <v>0.6826803134017778</v>
+        <v>0.04877927631733333</v>
       </c>
       <c r="R11">
-        <v>6.144122820616</v>
+        <v>0.439013486856</v>
       </c>
       <c r="S11">
-        <v>0.0440393808978383</v>
+        <v>0.004596994598820096</v>
       </c>
       <c r="T11">
-        <v>0.0440393808978383</v>
+        <v>0.004596994598820095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H12">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I12">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J12">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>10.387475</v>
       </c>
       <c r="O12">
-        <v>0.156503115206714</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="P12">
-        <v>0.1565031152067139</v>
+        <v>0.1923952864254561</v>
       </c>
       <c r="Q12">
-        <v>0.1433102217555556</v>
+        <v>0.01362144221666667</v>
       </c>
       <c r="R12">
-        <v>1.2897919958</v>
+        <v>0.12259297995</v>
       </c>
       <c r="S12">
-        <v>0.009244873945460032</v>
+        <v>0.001283694655303978</v>
       </c>
       <c r="T12">
-        <v>0.00924487394546003</v>
+        <v>0.001283694655303977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04138933333333333</v>
+        <v>0.003934</v>
       </c>
       <c r="H13">
-        <v>0.124168</v>
+        <v>0.011802</v>
       </c>
       <c r="I13">
-        <v>0.05907150112155356</v>
+        <v>0.006672173103374587</v>
       </c>
       <c r="J13">
-        <v>0.05907150112155357</v>
+        <v>0.006672173103374586</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.167503</v>
+        <v>2.134858333333333</v>
       </c>
       <c r="N13">
-        <v>6.502509000000001</v>
+        <v>6.404574999999999</v>
       </c>
       <c r="O13">
-        <v>0.09797019152004646</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="P13">
-        <v>0.09797019152004645</v>
+        <v>0.1186245975618055</v>
       </c>
       <c r="Q13">
-        <v>0.08971150416800001</v>
+        <v>0.008398532683333333</v>
       </c>
       <c r="R13">
-        <v>0.8074035375120001</v>
+        <v>0.07558679415</v>
       </c>
       <c r="S13">
-        <v>0.005787246278255242</v>
+        <v>0.0007914838492505131</v>
       </c>
       <c r="T13">
-        <v>0.005787246278255242</v>
+        <v>0.0007914838492505128</v>
       </c>
     </row>
   </sheetData>
